--- a/results/vqaonbd/retrieval_results.xlsx
+++ b/results/vqaonbd/retrieval_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,22 +544,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8411746982445054</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2649070723940965</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8023346635287696</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3103484967996644</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1916300010232273</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04281525217079524</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9551314847027524</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2067061397852551</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -584,7 +600,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -606,6 +622,31 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
